--- a/143 - 自定义构造4 - Event Signals - 事件信号.xlsx
+++ b/143 - 自定义构造4 - Event Signals - 事件信号.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="介绍" sheetId="4" r:id="rId1"/>
     <sheet name="Note标签" sheetId="1" r:id="rId2"/>
     <sheet name="插件指令" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -1101,6 +1101,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>发射信号：从坐标</t>
     </r>
     <r>
@@ -1131,6 +1139,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>发射信号：从事件</t>
     </r>
     <r>
@@ -1161,6 +1177,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>发射信号：从玩家</t>
     </r>
     <r>
@@ -2783,7 +2807,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
